--- a/www/IndicatorsPerCountry/TheGambia_GDPperCapita_TerritorialRef_1965_2012_CCode_270.xlsx
+++ b/www/IndicatorsPerCountry/TheGambia_GDPperCapita_TerritorialRef_1965_2012_CCode_270.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/TheGambia_GDPperCapita_TerritorialRef_1965_2012_CCode_270.xlsx
+++ b/www/IndicatorsPerCountry/TheGambia_GDPperCapita_TerritorialRef_1965_2012_CCode_270.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,196 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>846</t>
-  </si>
-  <si>
-    <t>955</t>
-  </si>
-  <si>
-    <t>957</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>879</t>
-  </si>
-  <si>
-    <t>949</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>1157</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>1134</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>1191</t>
-  </si>
-  <si>
-    <t>1039</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>871</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>877.530273741</t>
-  </si>
-  <si>
-    <t>862.965681107</t>
-  </si>
-  <si>
-    <t>866.781950957</t>
-  </si>
-  <si>
-    <t>884.693574278</t>
-  </si>
-  <si>
-    <t>883.772928642</t>
-  </si>
-  <si>
-    <t>821.891359008</t>
-  </si>
-  <si>
-    <t>841.056292912</t>
-  </si>
-  <si>
-    <t>851.293164488</t>
-  </si>
-  <si>
-    <t>851.173587826</t>
-  </si>
-  <si>
-    <t>875.730184432</t>
-  </si>
-  <si>
-    <t>894.812718037</t>
-  </si>
-  <si>
-    <t>916.708372768</t>
-  </si>
-  <si>
-    <t>860.220364585</t>
-  </si>
-  <si>
-    <t>890.113552677</t>
-  </si>
-  <si>
-    <t>925.784851216</t>
-  </si>
-  <si>
-    <t>944.776645272</t>
-  </si>
-  <si>
-    <t>977.726119725</t>
-  </si>
-  <si>
-    <t>1010.4486072</t>
-  </si>
-  <si>
-    <t>1042.94874454</t>
+    <t>982</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1390.70497512334</t>
+  </si>
+  <si>
+    <t>1391.40545449168</t>
+  </si>
+  <si>
+    <t>1385.5908111508</t>
+  </si>
+  <si>
+    <t>1345.0349874729</t>
+  </si>
+  <si>
+    <t>1317.24249573015</t>
+  </si>
+  <si>
+    <t>1336.84732412669</t>
+  </si>
+  <si>
+    <t>1308.48667194314</t>
+  </si>
+  <si>
+    <t>1324.92449635651</t>
+  </si>
+  <si>
+    <t>1385.63177687098</t>
+  </si>
+  <si>
+    <t>1440.86192167419</t>
+  </si>
+  <si>
+    <t>1495.091836157</t>
+  </si>
+  <si>
+    <t>1473.40067435036</t>
+  </si>
+  <si>
+    <t>1478.95622846008</t>
+  </si>
+  <si>
+    <t>1585.79921991557</t>
+  </si>
+  <si>
+    <t>1541.61159787083</t>
+  </si>
+  <si>
+    <t>1530.68440032576</t>
+  </si>
+  <si>
+    <t>1557.84736603492</t>
+  </si>
+  <si>
+    <t>1618.44448244572</t>
+  </si>
+  <si>
+    <t>1692.64234911445</t>
+  </si>
+  <si>
+    <t>1772.72685288389</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>1788</t>
   </si>
   <si>
     <t>Description</t>
@@ -849,7 +870,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +887,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -883,7 +904,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +921,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +938,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -934,7 +955,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -968,7 +989,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1006,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1002,7 +1023,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1040,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -1036,7 +1057,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1074,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1091,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1108,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1125,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1142,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1159,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1176,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
@@ -1172,7 +1193,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -1189,7 +1210,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1227,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
@@ -1223,7 +1244,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
@@ -1240,7 +1261,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -1257,7 +1278,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -1274,7 +1295,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -1291,7 +1312,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -1308,7 +1329,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1483,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
